--- a/Code/Results/Cases/Case_9_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01201467683784</v>
+        <v>1.011325439492893</v>
       </c>
       <c r="D2">
-        <v>1.033926906607348</v>
+        <v>1.032581040029409</v>
       </c>
       <c r="E2">
-        <v>1.016830171329327</v>
+        <v>1.016242265025837</v>
       </c>
       <c r="F2">
-        <v>1.039123619675804</v>
+        <v>1.038229956368675</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049557998472888</v>
+        <v>1.048977451775641</v>
       </c>
       <c r="J2">
-        <v>1.033841874774088</v>
+        <v>1.033172605915534</v>
       </c>
       <c r="K2">
-        <v>1.044932985230211</v>
+        <v>1.043604389505196</v>
       </c>
       <c r="L2">
-        <v>1.0280599107112</v>
+        <v>1.027479863526853</v>
       </c>
       <c r="M2">
-        <v>1.050063535543088</v>
+        <v>1.049181191173062</v>
       </c>
       <c r="N2">
-        <v>1.015127845942291</v>
+        <v>1.015959665770785</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048194280355235</v>
+        <v>1.047495970967612</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042841791056808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041911094935594</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023601726593546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015225282323907</v>
+        <v>1.01443471293727</v>
       </c>
       <c r="D3">
-        <v>1.036086037968565</v>
+        <v>1.034600493246139</v>
       </c>
       <c r="E3">
-        <v>1.019314253907206</v>
+        <v>1.018636961748809</v>
       </c>
       <c r="F3">
-        <v>1.041403145634199</v>
+        <v>1.040411368152965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050253179773078</v>
+        <v>1.049602227510243</v>
       </c>
       <c r="J3">
-        <v>1.035309323882573</v>
+        <v>1.034539461066163</v>
       </c>
       <c r="K3">
-        <v>1.046277107764022</v>
+        <v>1.044808997706686</v>
       </c>
       <c r="L3">
-        <v>1.02970582859653</v>
+        <v>1.029036805791292</v>
       </c>
       <c r="M3">
-        <v>1.051532316473793</v>
+        <v>1.050552025416063</v>
       </c>
       <c r="N3">
-        <v>1.015625412029092</v>
+        <v>1.01632745066731</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049356708835977</v>
+        <v>1.048580883166867</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043789540698619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042759923031827</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023828107873555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017271315328991</v>
+        <v>1.016416751871588</v>
       </c>
       <c r="D4">
-        <v>1.037466286500338</v>
+        <v>1.035892079284753</v>
       </c>
       <c r="E4">
-        <v>1.020902885561167</v>
+        <v>1.020169086944862</v>
       </c>
       <c r="F4">
-        <v>1.042861921617027</v>
+        <v>1.041807972289443</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050689579311658</v>
+        <v>1.0499939222057</v>
       </c>
       <c r="J4">
-        <v>1.036243304914911</v>
+        <v>1.035409638081882</v>
       </c>
       <c r="K4">
-        <v>1.047132615135745</v>
+        <v>1.045575789417647</v>
       </c>
       <c r="L4">
-        <v>1.030755410748308</v>
+        <v>1.030030033719427</v>
       </c>
       <c r="M4">
-        <v>1.052469163423303</v>
+        <v>1.051426696700509</v>
       </c>
       <c r="N4">
-        <v>1.015942067454438</v>
+        <v>1.016561612275686</v>
       </c>
       <c r="O4">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050098151048356</v>
+        <v>1.049273118873088</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044395340475427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043303077452</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023970013069601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018126831616853</v>
+        <v>1.01724563093504</v>
       </c>
       <c r="D5">
-        <v>1.03804642084891</v>
+        <v>1.036435263546266</v>
       </c>
       <c r="E5">
-        <v>1.021568796919179</v>
+        <v>1.020811463655419</v>
       </c>
       <c r="F5">
-        <v>1.043474086023863</v>
+        <v>1.042394241071342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050871867281574</v>
+        <v>1.050157559782126</v>
       </c>
       <c r="J5">
-        <v>1.036634935039055</v>
+        <v>1.035774650232735</v>
       </c>
       <c r="K5">
-        <v>1.047492712574767</v>
+        <v>1.045898879509463</v>
       </c>
       <c r="L5">
-        <v>1.031195438645605</v>
+        <v>1.030446566722764</v>
       </c>
       <c r="M5">
-        <v>1.052862497645743</v>
+        <v>1.051794109271288</v>
       </c>
       <c r="N5">
-        <v>1.016075073777382</v>
+        <v>1.016660024448887</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050409444574423</v>
+        <v>1.049563897748364</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044657082105991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043539363065698</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024029746667924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018273341048893</v>
+        <v>1.017387570381774</v>
       </c>
       <c r="D6">
-        <v>1.038148259073853</v>
+        <v>1.036530827745263</v>
       </c>
       <c r="E6">
-        <v>1.021683314487112</v>
+        <v>1.020921939493976</v>
       </c>
       <c r="F6">
-        <v>1.043579932608084</v>
+        <v>1.042495679548057</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050904728553538</v>
+        <v>1.050187233368097</v>
       </c>
       <c r="J6">
-        <v>1.036703691412942</v>
+        <v>1.035838838944184</v>
       </c>
       <c r="K6">
-        <v>1.047557590903698</v>
+        <v>1.045957472987705</v>
       </c>
       <c r="L6">
-        <v>1.031272040339981</v>
+        <v>1.030519133076659</v>
       </c>
       <c r="M6">
-        <v>1.052931602735874</v>
+        <v>1.051858801198975</v>
       </c>
       <c r="N6">
-        <v>1.016098712384976</v>
+        <v>1.016677555111758</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05046413587937</v>
+        <v>1.049615096436566</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04471164581654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043590351099482</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02404112553637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017291626195852</v>
+        <v>1.016442737200277</v>
       </c>
       <c r="D7">
-        <v>1.037486557341817</v>
+        <v>1.035916170339515</v>
       </c>
       <c r="E7">
-        <v>1.02091977401234</v>
+        <v>1.020191044564507</v>
       </c>
       <c r="F7">
-        <v>1.042878929822785</v>
+        <v>1.041828228136326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050698582895601</v>
+        <v>1.050005571888533</v>
       </c>
       <c r="J7">
-        <v>1.036257186866892</v>
+        <v>1.035429046903919</v>
       </c>
       <c r="K7">
-        <v>1.047149805719906</v>
+        <v>1.045596751351538</v>
       </c>
       <c r="L7">
-        <v>1.030769186582165</v>
+        <v>1.030048817355799</v>
       </c>
       <c r="M7">
-        <v>1.05248314933558</v>
+        <v>1.05144389056488</v>
       </c>
       <c r="N7">
-        <v>1.015947565214866</v>
+        <v>1.016593195642904</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05010921981526</v>
+        <v>1.049286726500785</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044427482175011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043339883024498</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023976017182319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013117424058085</v>
+        <v>1.012412706057094</v>
       </c>
       <c r="D8">
-        <v>1.034675632929908</v>
+        <v>1.033295931416467</v>
       </c>
       <c r="E8">
-        <v>1.017683615568481</v>
+        <v>1.017082301359505</v>
       </c>
       <c r="F8">
-        <v>1.039908366751173</v>
+        <v>1.038992712793879</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049803907812166</v>
+        <v>1.04920863376356</v>
       </c>
       <c r="J8">
-        <v>1.034351841679186</v>
+        <v>1.033666868606294</v>
       </c>
       <c r="K8">
-        <v>1.045405525503963</v>
+        <v>1.044043012687619</v>
       </c>
       <c r="L8">
-        <v>1.028629262485104</v>
+        <v>1.028035748695052</v>
       </c>
       <c r="M8">
-        <v>1.0505735842329</v>
+        <v>1.049669188983616</v>
       </c>
       <c r="N8">
-        <v>1.0153017880721</v>
+        <v>1.016171689655595</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048597945336216</v>
+        <v>1.047882184713191</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043198682759611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042246270727816</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023688274305448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005498012229196</v>
+        <v>1.005040295859814</v>
       </c>
       <c r="D9">
-        <v>1.02956955145511</v>
+        <v>1.028525413707986</v>
       </c>
       <c r="E9">
-        <v>1.011819933887157</v>
+        <v>1.011436139055169</v>
       </c>
       <c r="F9">
-        <v>1.034531568144389</v>
+        <v>1.033852611486284</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048112308757628</v>
+        <v>1.047686496449618</v>
       </c>
       <c r="J9">
-        <v>1.030858104271372</v>
+        <v>1.030416315212137</v>
       </c>
       <c r="K9">
-        <v>1.042200432272418</v>
+        <v>1.041172038664558</v>
       </c>
       <c r="L9">
-        <v>1.024724108180498</v>
+        <v>1.024346358281529</v>
       </c>
       <c r="M9">
-        <v>1.04708818102177</v>
+        <v>1.046419332964227</v>
       </c>
       <c r="N9">
-        <v>1.014116174575935</v>
+        <v>1.01530593059396</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045839507780471</v>
+        <v>1.045310163080564</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040929341736034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040212887508796</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023135017514877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000281883508274</v>
+        <v>1.000022100063208</v>
       </c>
       <c r="D10">
-        <v>1.0261237470571</v>
+        <v>1.025328440659383</v>
       </c>
       <c r="E10">
-        <v>1.007843863348382</v>
+        <v>1.007634132296708</v>
       </c>
       <c r="F10">
-        <v>1.030959903962143</v>
+        <v>1.030459665080823</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046943837211538</v>
+        <v>1.046646596914821</v>
       </c>
       <c r="J10">
-        <v>1.028484322019836</v>
+        <v>1.028234841185605</v>
       </c>
       <c r="K10">
-        <v>1.040036822298227</v>
+        <v>1.03925496101031</v>
       </c>
       <c r="L10">
-        <v>1.022072924066371</v>
+        <v>1.02186690470884</v>
       </c>
       <c r="M10">
-        <v>1.044791796581306</v>
+        <v>1.044299909479843</v>
       </c>
       <c r="N10">
-        <v>1.01331447011259</v>
+        <v>1.014837946781445</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044073176077288</v>
+        <v>1.043683906183764</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039416272651966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038875804896637</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022762621731971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9983198341314311</v>
+        <v>0.9981545382193728</v>
       </c>
       <c r="D11">
-        <v>1.025016877290573</v>
+        <v>1.024319599999458</v>
       </c>
       <c r="E11">
-        <v>1.006402999479289</v>
+        <v>1.006275552978701</v>
       </c>
       <c r="F11">
-        <v>1.030209071017689</v>
+        <v>1.029782481513639</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04666778043357</v>
+        <v>1.046422918108351</v>
       </c>
       <c r="J11">
-        <v>1.02776267739832</v>
+        <v>1.027604292599657</v>
       </c>
       <c r="K11">
-        <v>1.039481945348677</v>
+        <v>1.038797009282783</v>
       </c>
       <c r="L11">
-        <v>1.021205166447161</v>
+        <v>1.021080084074958</v>
       </c>
       <c r="M11">
-        <v>1.044582921942868</v>
+        <v>1.044163781898347</v>
       </c>
       <c r="N11">
-        <v>1.013102342437795</v>
+        <v>1.014918461765369</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044341152463278</v>
+        <v>1.044009617859377</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039056621656268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038587895268913</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022718273977393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9977014372051742</v>
+        <v>0.9975608143534092</v>
       </c>
       <c r="D12">
-        <v>1.024738724140605</v>
+        <v>1.024064190465374</v>
       </c>
       <c r="E12">
-        <v>1.005969925514576</v>
+        <v>1.00586314324387</v>
       </c>
       <c r="F12">
-        <v>1.030215631838206</v>
+        <v>1.029806583016648</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046647275704766</v>
+        <v>1.046413658888203</v>
       </c>
       <c r="J12">
-        <v>1.02760339591924</v>
+        <v>1.02746876484826</v>
       </c>
       <c r="K12">
-        <v>1.039406836051648</v>
+        <v>1.038744437729</v>
       </c>
       <c r="L12">
-        <v>1.020983638009604</v>
+        <v>1.020878870195683</v>
       </c>
       <c r="M12">
-        <v>1.044785973477997</v>
+        <v>1.044384180110125</v>
       </c>
       <c r="N12">
-        <v>1.013073646546433</v>
+        <v>1.01500063770675</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044826118181091</v>
+        <v>1.044508410849826</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039003517498473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038550726588066</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022739465461801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.998087273430864</v>
+        <v>0.9979097873388587</v>
       </c>
       <c r="D13">
-        <v>1.02509645161564</v>
+        <v>1.024381170351262</v>
       </c>
       <c r="E13">
-        <v>1.00629173122141</v>
+        <v>1.006151303480144</v>
       </c>
       <c r="F13">
-        <v>1.030827980290192</v>
+        <v>1.030388700106334</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046835044046192</v>
+        <v>1.046577310015873</v>
       </c>
       <c r="J13">
-        <v>1.02787988641294</v>
+        <v>1.027709927217363</v>
       </c>
       <c r="K13">
-        <v>1.039715661220605</v>
+        <v>1.039013194477812</v>
       </c>
       <c r="L13">
-        <v>1.021255743764755</v>
+        <v>1.02111795422632</v>
       </c>
       <c r="M13">
-        <v>1.045345340157765</v>
+        <v>1.044913814026571</v>
       </c>
       <c r="N13">
-        <v>1.013189871478382</v>
+        <v>1.015058305830131</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04554352422966</v>
+        <v>1.045202391374123</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039219385909813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038738019578619</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022817519287334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9988133801663233</v>
+        <v>0.9985828213380115</v>
       </c>
       <c r="D14">
-        <v>1.025636241150129</v>
+        <v>1.024864209650664</v>
       </c>
       <c r="E14">
-        <v>1.006859891400857</v>
+        <v>1.006671955421542</v>
       </c>
       <c r="F14">
-        <v>1.031531249611687</v>
+        <v>1.031049634322234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047061022392727</v>
+        <v>1.046770850576555</v>
       </c>
       <c r="J14">
-        <v>1.028271332109977</v>
+        <v>1.02805041418215</v>
       </c>
       <c r="K14">
-        <v>1.040106722275509</v>
+        <v>1.039348352756716</v>
       </c>
       <c r="L14">
-        <v>1.021670390159071</v>
+        <v>1.02148594109667</v>
       </c>
       <c r="M14">
-        <v>1.045898284779687</v>
+        <v>1.045425063444673</v>
       </c>
       <c r="N14">
-        <v>1.013337154338364</v>
+        <v>1.015089013261512</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046153086261933</v>
+        <v>1.045779042356396</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039497292604064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038976535517712</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022898403271283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9992132597022002</v>
+        <v>0.9989567027978548</v>
       </c>
       <c r="D15">
-        <v>1.025914317080812</v>
+        <v>1.025114682274239</v>
       </c>
       <c r="E15">
-        <v>1.007167097594505</v>
+        <v>1.006956109237842</v>
       </c>
       <c r="F15">
-        <v>1.031849346838433</v>
+        <v>1.031347131848084</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047166158478312</v>
+        <v>1.046860529104757</v>
       </c>
       <c r="J15">
-        <v>1.028467517413316</v>
+        <v>1.028221596622065</v>
       </c>
       <c r="K15">
-        <v>1.040294224571426</v>
+        <v>1.039508634404193</v>
       </c>
       <c r="L15">
-        <v>1.02188392324062</v>
+        <v>1.021676819714025</v>
       </c>
       <c r="M15">
-        <v>1.046125892678383</v>
+        <v>1.04563236441641</v>
       </c>
       <c r="N15">
-        <v>1.013406888167744</v>
+        <v>1.015095766962094</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046370355053962</v>
+        <v>1.045980270352047</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03963569912485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039096265025392</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022933172502789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001344175382213</v>
+        <v>1.000968890322476</v>
       </c>
       <c r="D16">
-        <v>1.027309107663996</v>
+        <v>1.026381391046106</v>
       </c>
       <c r="E16">
-        <v>1.00878075085024</v>
+        <v>1.008465491819893</v>
       </c>
       <c r="F16">
-        <v>1.033274408841383</v>
+        <v>1.032677132378748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047640074557024</v>
+        <v>1.047264842491183</v>
       </c>
       <c r="J16">
-        <v>1.029427948887431</v>
+        <v>1.029067457307997</v>
       </c>
       <c r="K16">
-        <v>1.0411669103976</v>
+        <v>1.040254787668139</v>
       </c>
       <c r="L16">
-        <v>1.022957038108575</v>
+        <v>1.022647329340071</v>
       </c>
       <c r="M16">
-        <v>1.047032802423916</v>
+        <v>1.046445412710196</v>
       </c>
       <c r="N16">
-        <v>1.013727178739459</v>
+        <v>1.015113971175302</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04704863636522</v>
+        <v>1.046584350524233</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040255862791607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039627266244146</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023074324930339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002601269633719</v>
+        <v>1.002169695118027</v>
       </c>
       <c r="D17">
-        <v>1.02809823839484</v>
+        <v>1.027107014398893</v>
       </c>
       <c r="E17">
-        <v>1.009724579114995</v>
+        <v>1.009360275828558</v>
       </c>
       <c r="F17">
-        <v>1.033995709375674</v>
+        <v>1.033351831758908</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047883435476141</v>
+        <v>1.047474946008916</v>
       </c>
       <c r="J17">
-        <v>1.029959850599995</v>
+        <v>1.029544749722228</v>
       </c>
       <c r="K17">
-        <v>1.041630909516</v>
+        <v>1.040655885820784</v>
       </c>
       <c r="L17">
-        <v>1.023564222912891</v>
+        <v>1.023206152112702</v>
       </c>
       <c r="M17">
-        <v>1.047432817678989</v>
+        <v>1.0467993054111</v>
       </c>
       <c r="N17">
-        <v>1.013895691671016</v>
+        <v>1.015140453700788</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047236403056997</v>
+        <v>1.046735611494818</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040586498665188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039913677017322</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023140779033939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003213562126426</v>
+        <v>1.002766394821136</v>
       </c>
       <c r="D18">
-        <v>1.028416204992841</v>
+        <v>1.027406205673402</v>
       </c>
       <c r="E18">
-        <v>1.010167097450229</v>
+        <v>1.009789811835976</v>
       </c>
       <c r="F18">
-        <v>1.034132014229551</v>
+        <v>1.033474545167664</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047938505640247</v>
+        <v>1.047521526718565</v>
       </c>
       <c r="J18">
-        <v>1.030155712275849</v>
+        <v>1.029725296937875</v>
       </c>
       <c r="K18">
-        <v>1.04176182512164</v>
+        <v>1.040768066112351</v>
       </c>
       <c r="L18">
-        <v>1.023812611343763</v>
+        <v>1.023441673275288</v>
       </c>
       <c r="M18">
-        <v>1.047386492378555</v>
+        <v>1.046739441327302</v>
       </c>
       <c r="N18">
-        <v>1.013942509859748</v>
+        <v>1.015134511180116</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046963376379429</v>
+        <v>1.046451776856363</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040667490463548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039980288204085</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023140446523096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003248967207011</v>
+        <v>1.002817618032733</v>
       </c>
       <c r="D19">
-        <v>1.028318978245802</v>
+        <v>1.027326987570383</v>
       </c>
       <c r="E19">
-        <v>1.010161923331397</v>
+        <v>1.009799445683489</v>
       </c>
       <c r="F19">
-        <v>1.033740489739287</v>
+        <v>1.033096145683872</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047831072701648</v>
+        <v>1.047425435721982</v>
       </c>
       <c r="J19">
-        <v>1.03005587888744</v>
+        <v>1.029640592718034</v>
       </c>
       <c r="K19">
-        <v>1.041604138131319</v>
+        <v>1.040628016734864</v>
       </c>
       <c r="L19">
-        <v>1.023743909036381</v>
+        <v>1.02338749711809</v>
       </c>
       <c r="M19">
-        <v>1.046939608266811</v>
+        <v>1.046305429648881</v>
       </c>
       <c r="N19">
-        <v>1.013885016547317</v>
+        <v>1.015083681225743</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046286502631101</v>
+        <v>1.045784918907581</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040562360427485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039888253224541</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023083692260438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001654685048837</v>
+        <v>1.001324516695671</v>
       </c>
       <c r="D20">
-        <v>1.027045901817152</v>
+        <v>1.026172183760051</v>
       </c>
       <c r="E20">
-        <v>1.008891348902795</v>
+        <v>1.008619403503907</v>
       </c>
       <c r="F20">
-        <v>1.031907498493701</v>
+        <v>1.031349303595929</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047266227781196</v>
+        <v>1.046926240052298</v>
       </c>
       <c r="J20">
-        <v>1.029121970041103</v>
+        <v>1.028804475753482</v>
       </c>
       <c r="K20">
-        <v>1.040629287693223</v>
+        <v>1.039769925653519</v>
       </c>
       <c r="L20">
-        <v>1.022779635885475</v>
+        <v>1.022512365609802</v>
       </c>
       <c r="M20">
-        <v>1.045411573857765</v>
+        <v>1.044862436369981</v>
       </c>
       <c r="N20">
-        <v>1.013532299426367</v>
+        <v>1.014894550586382</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044553182685569</v>
+        <v>1.044118600732686</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039877008993644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039285844533451</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022865903338708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9976837747456394</v>
+        <v>0.9975961104871996</v>
       </c>
       <c r="D21">
-        <v>1.024393809980204</v>
+        <v>1.023777924114974</v>
       </c>
       <c r="E21">
-        <v>1.005866829085866</v>
+        <v>1.005809802901639</v>
       </c>
       <c r="F21">
-        <v>1.029086232694546</v>
+        <v>1.028720841103151</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046331024281818</v>
+        <v>1.046134769059145</v>
       </c>
       <c r="J21">
-        <v>1.027278656604603</v>
+        <v>1.027194682292419</v>
       </c>
       <c r="K21">
-        <v>1.038927316869544</v>
+        <v>1.038322397632301</v>
       </c>
       <c r="L21">
-        <v>1.02073789857122</v>
+        <v>1.020681936460735</v>
       </c>
       <c r="M21">
-        <v>1.043536743681069</v>
+        <v>1.043177779612957</v>
       </c>
       <c r="N21">
-        <v>1.012903812140614</v>
+        <v>1.014874537520294</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043028798469384</v>
+        <v>1.042744703413947</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038676870291071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038265931997835</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022580058432082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.995156597996197</v>
+        <v>0.9952215074547304</v>
       </c>
       <c r="D22">
-        <v>1.022716805744884</v>
+        <v>1.022263165716153</v>
       </c>
       <c r="E22">
-        <v>1.003950775702943</v>
+        <v>1.004029005288902</v>
       </c>
       <c r="F22">
-        <v>1.027333236995695</v>
+        <v>1.027089362546711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04573528487807</v>
+        <v>1.045629508711055</v>
       </c>
       <c r="J22">
-        <v>1.026110854613961</v>
+        <v>1.026172875548208</v>
       </c>
       <c r="K22">
-        <v>1.037851282709278</v>
+        <v>1.03740612083986</v>
       </c>
       <c r="L22">
-        <v>1.019444371149191</v>
+        <v>1.019521067114358</v>
       </c>
       <c r="M22">
-        <v>1.042381991617613</v>
+        <v>1.042142620534961</v>
       </c>
       <c r="N22">
-        <v>1.012506459090762</v>
+        <v>1.014855346435091</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042114892251902</v>
+        <v>1.041925446487785</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037902636668938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037603352606464</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022398194321737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9964919964522844</v>
+        <v>0.9964660142374199</v>
       </c>
       <c r="D23">
-        <v>1.023596652258978</v>
+        <v>1.023049632091812</v>
       </c>
       <c r="E23">
-        <v>1.00496132564199</v>
+        <v>1.004958840353524</v>
       </c>
       <c r="F23">
-        <v>1.028256503994394</v>
+        <v>1.02794206617543</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046046594363274</v>
+        <v>1.045887897500098</v>
       </c>
       <c r="J23">
-        <v>1.02672383009756</v>
+        <v>1.026698970770583</v>
       </c>
       <c r="K23">
-        <v>1.038412378654441</v>
+        <v>1.037875325202765</v>
       </c>
       <c r="L23">
-        <v>1.020124585220614</v>
+        <v>1.020122147405486</v>
       </c>
       <c r="M23">
-        <v>1.042987886538773</v>
+        <v>1.042679108811346</v>
       </c>
       <c r="N23">
-        <v>1.012714172075167</v>
+        <v>1.014821329686035</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042594416228263</v>
+        <v>1.042350040026207</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038289766200911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037924569682828</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022489216178092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001674216456775</v>
+        <v>1.001345296863519</v>
       </c>
       <c r="D24">
-        <v>1.027032262363183</v>
+        <v>1.026159848624803</v>
       </c>
       <c r="E24">
-        <v>1.00889997728571</v>
+        <v>1.008629261320907</v>
       </c>
       <c r="F24">
-        <v>1.031859620753948</v>
+        <v>1.031302413676576</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047247947865795</v>
+        <v>1.046908960897482</v>
       </c>
       <c r="J24">
-        <v>1.02910797075954</v>
+        <v>1.028791658853575</v>
       </c>
       <c r="K24">
-        <v>1.040600728192306</v>
+        <v>1.039742631165213</v>
       </c>
       <c r="L24">
-        <v>1.022772581451199</v>
+        <v>1.022506513378157</v>
       </c>
       <c r="M24">
-        <v>1.045349429272685</v>
+        <v>1.04480125309034</v>
       </c>
       <c r="N24">
-        <v>1.013523486293148</v>
+        <v>1.014884223086314</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044463411155981</v>
+        <v>1.044029568701462</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039829557617041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039236616529472</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02285442009952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00751292902988</v>
+        <v>1.006981370536102</v>
       </c>
       <c r="D25">
-        <v>1.030925558692155</v>
+        <v>1.029786845031313</v>
       </c>
       <c r="E25">
-        <v>1.013366964396396</v>
+        <v>1.012918079446008</v>
       </c>
       <c r="F25">
-        <v>1.035951307745823</v>
+        <v>1.035204742804946</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048572688700169</v>
+        <v>1.04809806489183</v>
       </c>
       <c r="J25">
-        <v>1.031790071749703</v>
+        <v>1.031276046500204</v>
       </c>
       <c r="K25">
-        <v>1.043062040719246</v>
+        <v>1.041939709056757</v>
       </c>
       <c r="L25">
-        <v>1.02576125968849</v>
+        <v>1.025319114859925</v>
       </c>
       <c r="M25">
-        <v>1.048016031433094</v>
+        <v>1.047280070313916</v>
       </c>
       <c r="N25">
-        <v>1.014433815166202</v>
+        <v>1.015505677991927</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046573833416684</v>
+        <v>1.045991374159574</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041566968322098</v>
+        <v>1.040786897805482</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023286610128669</v>
       </c>
     </row>
   </sheetData>
